--- a/Projeto 1 Analisar engajamento/08. Analisando o engajamento no Instagram.xlsx
+++ b/Projeto 1 Analisar engajamento/08. Analisando o engajamento no Instagram.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JEAN LUCA\Documents\Lucas\Curso\Aula 008 - Projeto 1 (Analisando o engajamento do Instagram)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rayro\OneDrive\GITHUB\Data_Science\Projeto 1 Analisar engajamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C03E2B1-5FD0-4B39-A093-8445D1188A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCB5BA1-DA02-423B-8F80-894FAAB9E6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{6BA20007-32F2-4A33-87D7-D0D0C83579ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6BA20007-32F2-4A33-87D7-D0D0C83579ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="7" r:id="rId1"/>
@@ -1289,7 +1289,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
